--- a/data/georgia_census/imereti/samtredia/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/samtredia/healthcare_staff.xlsx
@@ -1373,13 +1373,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5CC8488-0579-47A8-844B-CD2E7E1DB21B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E1BABD8-5239-4D02-8AA7-B7CE69FDEF54}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1206E25-03E4-48B3-8C4F-A916C4FCB264}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A229695-DE5C-4C76-B82E-A1A50971BF7F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FD90634-DD44-4B7E-B131-DD1855900BA5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47FB1B86-413D-4BBE-9DFB-5080C6FB922A}"/>
 </file>